--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/17/word_level_predictions_17.xlsx
@@ -5286,158 +5286,158 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>6</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>3</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>6</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" t="n">
         <v>4</v>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" t="n">
         <v>6</v>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" t="n">
         <v>5</v>
       </c>
-      <c r="E96" s="2" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5806,468 +5806,468 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" t="n">
         <v>7</v>
       </c>
-      <c r="B104" s="2" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" s="2" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" t="n">
         <v>3</v>
       </c>
-      <c r="E104" s="2" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G104" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L104" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" t="n">
         <v>7</v>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" s="2" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" t="n">
         <v>4</v>
       </c>
-      <c r="E105" s="2" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F105" s="2" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G105" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L105" s="2" t="inlineStr">
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" t="n">
         <v>7</v>
       </c>
-      <c r="B106" s="2" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" s="2" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" t="n">
         <v>5</v>
       </c>
-      <c r="E106" s="2" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F106" s="2" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G106" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2" t="inlineStr">
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" t="n">
         <v>7</v>
       </c>
-      <c r="B107" s="2" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C107" s="2" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" t="n">
         <v>6</v>
       </c>
-      <c r="E107" s="2" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F107" s="2" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G107" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" s="2" t="inlineStr">
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" t="n">
         <v>7</v>
       </c>
-      <c r="B108" s="2" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C108" s="2" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" t="n">
         <v>7</v>
       </c>
-      <c r="E108" s="2" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F108" s="2" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G108" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L108" s="2" t="inlineStr">
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" t="n">
         <v>7</v>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C109" s="2" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" t="n">
         <v>8</v>
       </c>
-      <c r="E109" s="2" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F109" s="2" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G109" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L109" s="2" t="inlineStr">
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" t="n">
         <v>7</v>
       </c>
-      <c r="B110" s="2" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C110" s="2" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" t="n">
         <v>9</v>
       </c>
-      <c r="E110" s="2" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F110" s="2" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G110" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2" t="inlineStr">
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" t="n">
         <v>7</v>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>anti-collision</t>
         </is>
       </c>
-      <c r="D111" s="2" t="n">
+      <c r="D111" t="n">
         <v>10</v>
       </c>
-      <c r="E111" s="2" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F111" s="2" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G111" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" s="2" t="inlineStr">
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" t="n">
         <v>7</v>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C112" s="2" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" t="n">
         <v>11</v>
       </c>
-      <c r="E112" s="2" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" s="2" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10434,314 +10434,314 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
+      <c r="A193" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B193" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C193" s="2" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="D193" t="n">
+      <c r="D193" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="E193" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="F193" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G193" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I193" t="b">
-        <v>1</v>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K193" t="b">
-        <v>1</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="G193" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J193" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L193" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
+      <c r="A194" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B194" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C194" s="2" t="inlineStr">
         <is>
           <t>violate</t>
         </is>
       </c>
-      <c r="D194" t="n">
+      <c r="D194" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G194" t="b">
-        <v>1</v>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I194" t="b">
-        <v>1</v>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K194" t="b">
-        <v>1</v>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G194" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J194" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
+      <c r="A195" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B195" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C195" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D195" t="n">
+      <c r="D195" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G195" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I195" t="b">
-        <v>1</v>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K195" t="b">
-        <v>1</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="E195" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F195" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G195" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J195" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
+      <c r="A196" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B196" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="C196" s="2" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="D196" t="n">
+      <c r="D196" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G196" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I196" t="b">
-        <v>1</v>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K196" t="b">
-        <v>1</v>
-      </c>
-      <c r="L196" t="inlineStr">
+      <c r="E196" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F196" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G196" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I196" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J196" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K196" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L196" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="E197" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11422,364 +11422,364 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="F212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/17/word_level_predictions_17.xlsx
@@ -5286,158 +5286,158 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5806,468 +5806,468 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E104" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K104" t="b">
-        <v>1</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E105" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F105" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="G105" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E106" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F106" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="G106" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C107" s="2" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E107" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F107" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="G107" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C108" s="2" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E108" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F108" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="G108" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
+      <c r="A109" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C109" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E109" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F109" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G109" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K109" t="b">
-        <v>1</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="G109" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C110" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D110" t="n">
+      <c r="D110" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E110" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F110" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="G110" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C111" s="2" t="inlineStr">
         <is>
           <t>anti-collision</t>
         </is>
       </c>
-      <c r="D111" t="n">
+      <c r="D111" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="E111" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F111" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="G111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10434,314 +10434,314 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
+      <c r="A193" t="n">
         <v>12</v>
       </c>
-      <c r="B193" s="2" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C193" s="2" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="D193" s="2" t="n">
+      <c r="D193" t="n">
         <v>4</v>
       </c>
-      <c r="E193" s="2" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F193" s="2" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G193" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L193" s="2" t="inlineStr">
+      <c r="G193" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I193" t="b">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K193" t="b">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
+      <c r="A194" t="n">
         <v>12</v>
       </c>
-      <c r="B194" s="2" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C194" s="2" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>violate</t>
         </is>
       </c>
-      <c r="D194" s="2" t="n">
+      <c r="D194" t="n">
         <v>5</v>
       </c>
-      <c r="E194" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F194" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G194" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H194" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I194" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K194" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L194" s="2" t="inlineStr">
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G194" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I194" t="b">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K194" t="b">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n">
+      <c r="A195" t="n">
         <v>12</v>
       </c>
-      <c r="B195" s="2" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C195" s="2" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D195" s="2" t="n">
+      <c r="D195" t="n">
         <v>6</v>
       </c>
-      <c r="E195" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F195" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G195" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L195" s="2" t="inlineStr">
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G195" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I195" t="b">
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K195" t="b">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="n">
+      <c r="A196" t="n">
         <v>12</v>
       </c>
-      <c r="B196" s="2" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C196" s="2" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="D196" s="2" t="n">
+      <c r="D196" t="n">
         <v>7</v>
       </c>
-      <c r="E196" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F196" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G196" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I196" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K196" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L196" s="2" t="inlineStr">
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G196" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I196" t="b">
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K196" t="b">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>12</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>8</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F197" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>12</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
+      <c r="D198" t="n">
         <v>9</v>
       </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11422,364 +11422,364 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>13</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>5</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" s="2" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>13</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>6</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>13</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>7</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>13</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>8</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>13</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>9</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>13</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>10</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>13</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>11</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" s="2" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
